--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2168.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2168.xlsx
@@ -354,7 +354,7 @@
         <v>2.653388942557042</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.191227180561434</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2168.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2168.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.401755151363363</v>
+        <v>1.191751003265381</v>
       </c>
       <c r="B1">
-        <v>2.653388942557042</v>
+        <v>2.425400733947754</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.191227180561434</v>
+        <v>1.428634643554688</v>
       </c>
       <c r="E1">
-        <v>0.6167571768494182</v>
+        <v>0.9286888837814331</v>
       </c>
     </row>
   </sheetData>
